--- a/biology/Botanique/Morinda_(plante)/Morinda_(plante).xlsx
+++ b/biology/Botanique/Morinda_(plante)/Morinda_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morinda est un genre de plantes à fleurs de la famille des Rubiaceae.
 Il en existe environ 80 espèces réparties dans toutes les régions tropicales du monde. Elles se présentent sous forme d'arbres, de lianes et d'arbustes.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (2 avr. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (2 avr. 2011) :
 Morinda ammitia Halford &amp; A.J.Ford (2004)
 Morinda angolensis (R.D.Good) F.White (1962)
 Morinda angustifolia Roxb. (1815)
@@ -673,9 +687,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (2 avr. 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (2 avr. 2011) :
 Morinda ammitia
 Morinda angustifolia
 Morinda buchii
